--- a/Experiments/MultiplyTemperature/Results.xlsx
+++ b/Experiments/MultiplyTemperature/Results.xlsx
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>E_kJ</t>
+          <t>E_J</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>dE_kJ</t>
+          <t>dE_J</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>nu0_cP</t>
+          <t>D0_m2s</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dnu0_cP</t>
+          <t>dD0</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>w_mass</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -475,16 +475,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>57.30899410679122</v>
+        <v>59378.05247378432</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09536912626709437</v>
+        <v>95.84292762018595</v>
       </c>
       <c r="D2" t="n">
-        <v>1.178113197003577e-08</v>
+        <v>8.033632311959899e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>4.56452840393914e-10</v>
+        <v>3.12590167321964e-11</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,27 +496,23 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Отклонения при высоких T</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>49.84799401229606</v>
+        <v>52363.74686507847</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1522322203017517</v>
+        <v>151.4487623016794</v>
       </c>
       <c r="D3" t="n">
-        <v>1.720000560390932e-07</v>
+        <v>6.605024100956505e-11</v>
       </c>
       <c r="E3" t="n">
-        <v>1.036206814829991e-08</v>
+        <v>3.958964263266607e-12</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -535,16 +531,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49.80551937586576</v>
+        <v>52285.07673025259</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1380767317416804</v>
+        <v>137.2422202936468</v>
       </c>
       <c r="D4" t="n">
-        <v>1.382406376086929e-07</v>
+        <v>8.098950367049989e-11</v>
       </c>
       <c r="E4" t="n">
-        <v>7.718089775875769e-09</v>
+        <v>4.494355913669243e-12</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -563,16 +559,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45.1936870364607</v>
+        <v>47693.48261218908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1659115501647364</v>
+        <v>153.6411421721277</v>
       </c>
       <c r="D5" t="n">
-        <v>6.766511732263246e-07</v>
+        <v>1.668007864526761e-11</v>
       </c>
       <c r="E5" t="n">
-        <v>4.505938573877473e-08</v>
+        <v>1.028508669043341e-12</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,16 +587,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40.77965119199933</v>
+        <v>43295.33052403674</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1248973519913186</v>
+        <v>123.8661667509623</v>
       </c>
       <c r="D6" t="n">
-        <v>3.193288160121095e-06</v>
+        <v>3.556831140227582e-12</v>
       </c>
       <c r="E6" t="n">
-        <v>1.582002351492219e-07</v>
+        <v>1.747575056661922e-13</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -619,16 +615,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42.25974874922814</v>
+        <v>44740.27827301584</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09849646350423313</v>
+        <v>96.97816208418953</v>
       </c>
       <c r="D7" t="n">
-        <v>1.499155492833876e-06</v>
+        <v>7.470598095926047e-12</v>
       </c>
       <c r="E7" t="n">
-        <v>5.974013456452484e-08</v>
+        <v>2.93105569913248e-13</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -647,16 +643,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38.16223497601896</v>
+        <v>40670.39010520129</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09994062475989907</v>
+        <v>99.04511597062083</v>
       </c>
       <c r="D8" t="n">
-        <v>6.485714082783101e-06</v>
+        <v>1.746090103388697e-12</v>
       </c>
       <c r="E8" t="n">
-        <v>2.601236831034777e-07</v>
+        <v>6.940302296850683e-14</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -675,16 +671,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38.11381741614399</v>
+        <v>40593.91144412195</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09201791383085833</v>
+        <v>90.65183903915749</v>
       </c>
       <c r="D9" t="n">
-        <v>5.828201688063581e-06</v>
+        <v>1.921457161756913e-12</v>
       </c>
       <c r="E9" t="n">
-        <v>2.178689720735751e-07</v>
+        <v>7.075847583347385e-14</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -703,16 +699,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>37.81080731640781</v>
+        <v>40303.09222414828</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09111495706198269</v>
+        <v>89.69410860524295</v>
       </c>
       <c r="D10" t="n">
-        <v>5.870292457836734e-06</v>
+        <v>1.917089436229147e-12</v>
       </c>
       <c r="E10" t="n">
-        <v>2.15720733738717e-07</v>
+        <v>6.934989749357998e-14</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
